--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2284532.404165457</v>
+        <v>2376233.437504849</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11186070.63620578</v>
+        <v>12062936.15886391</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2641080.675628599</v>
+        <v>4184108.078182775</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8567089.281096444</v>
+        <v>8058382.516411713</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>139.806097218445</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,10 +1429,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92287717670488</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,10 +1539,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>82.40289489337239</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>175.8976551030057</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,16 +1609,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>19.34104464821355</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>62.07870293839544</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1667,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1819,19 +1821,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>99.5523253055579</v>
       </c>
       <c r="V16" t="n">
-        <v>54.20115166694979</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,13 +1849,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>14.74277504120777</v>
       </c>
       <c r="E17" t="n">
-        <v>41.44059585273717</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>108.2966677999646</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2056,19 +2058,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>174.3948783669701</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>289.3332033345146</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2099,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>183.2591175179962</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>7.691473479780174</v>
       </c>
       <c r="S22" t="n">
-        <v>131.8879216746079</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2299,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2327,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,19 +2374,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>8.87089910508514</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>153.4018905525026</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247757</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>162.5701994818073</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,16 +2484,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>69.33603223847385</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2555,22 +2557,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>77.82986353514208</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2606,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>339.1178833260007</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>136.6677968154109</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>20.3577970897136</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>341.1569118905546</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>323.6959619980815</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>313.106111847757</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>340.3534402993358</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>365.2991159687855</v>
+        <v>311.881171434734</v>
       </c>
       <c r="G29" t="n">
-        <v>369.3447958805271</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>253.0308346143945</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>67.61083201524985</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>162.3410403666942</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>209.4182421859762</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>286.1753286972089</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>307.6640389444871</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>328.1541709055431</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>344.6610088831276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>138.2550504090113</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>125.6698913257019</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>107.0385432452864</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>104.8570328736432</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>103.8441182500053</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>124.4488784861022</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>103.1780851413948</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>94.34178935654127</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.35522289712135</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>148.1920955585159</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>177.9720195032432</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>170.7128293034316</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>210.560713550902</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>244.946068563665</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>184.1327256161112</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>177.0077235791688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>341.1569118905546</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>323.6959619980815</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>313.106111847757</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>340.3534402993358</v>
+        <v>141.1762660121938</v>
       </c>
       <c r="F32" t="n">
-        <v>365.2991159687855</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>369.3447958805275</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>253.0308346143945</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.61083201524987</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>162.3410403666942</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>209.4182421859757</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>286.1753286972089</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>307.6640389444871</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>328.1541709055431</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>344.6610088831276</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138.2550504090113</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>125.6698913257019</v>
+        <v>155.7123319296402</v>
       </c>
       <c r="D34" t="n">
-        <v>107.0385432452864</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>103.8441182500053</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>124.4488784861022</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>103.1780851413948</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>54.77549063691213</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>23.51468600459604</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>148.1920955585159</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>177.9720195032432</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>244.6349084326869</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>210.560713550902</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>244.946068563665</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>184.1327256161112</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>177.0077235791688</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>341.1569118905546</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>323.6959619980815</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>313.106111847757</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>340.3534402993358</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>369.3447958805275</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>253.0308346143945</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>162.3410403666942</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>209.418242185976</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.2402492532242</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>328.1541709055431</v>
+        <v>281.0447321358022</v>
       </c>
       <c r="Y35" t="n">
-        <v>344.6610088831276</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>138.2550504090113</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>125.6698913257019</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>107.0385432452864</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>104.8570328736432</v>
+        <v>145.4717465846019</v>
       </c>
       <c r="F37" t="n">
-        <v>103.8441182500053</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>124.4488784861022</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>103.1780851413948</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>54.77549063691213</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>47.35522289712137</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>19.49452579234795</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>177.9720195032432</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>244.6349084326869</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>210.560713550902</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>244.946068563665</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>184.1327256161112</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>177.0077235791688</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>323.6959619980815</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>313.106111847757</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>340.3534402993358</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>365.2991159687855</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>369.3447958805275</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>253.0308346143945</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.61083201524987</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>162.3410403666942</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>209.418242185976</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>169.9773451207997</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>307.6640389444871</v>
+        <v>70.01505925776725</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>344.6610088831276</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>138.2550504090113</v>
+        <v>133.2652736041682</v>
       </c>
       <c r="C40" t="n">
-        <v>125.6698913257019</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>104.8570328736432</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>103.8441182500053</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>124.4488784861022</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>103.1780851413948</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>54.77549063691213</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.35522289712137</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>148.1920955585159</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>177.9720195032432</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>244.6349084326869</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>188.9016870300201</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>244.946068563665</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>184.1327256161112</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>177.0077235791688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>341.1569118905546</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>323.6959619980815</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>313.106111847757</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>340.3534402993358</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>365.2991159687855</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>100.9180106384838</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>253.0308346143945</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.61083201524987</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>162.3410403666942</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>286.1753286972089</v>
+        <v>77.51770459168048</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>328.1541709055431</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>344.6610088831276</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>138.2550504090113</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>125.6698913257019</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>104.8570328736432</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>103.8441182500053</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>124.4488784861022</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>103.1780851413948</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>54.77549063691213</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>47.35522289712137</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>148.1920955585159</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>177.9720195032432</v>
+        <v>5.783541277258553</v>
       </c>
       <c r="U43" t="n">
-        <v>244.6349084326869</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>210.560713550902</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>244.946068563665</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>184.1327256161112</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>155.3486970582868</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>127.553294252496</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3989,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>381.5245088879223</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>15.3549563286845</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>42.32069823344285</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1225.638517792182</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C11" t="n">
-        <v>1225.638517792182</v>
+        <v>905.5765942093292</v>
       </c>
       <c r="D11" t="n">
-        <v>867.3728191854311</v>
+        <v>547.3108956025787</v>
       </c>
       <c r="E11" t="n">
-        <v>481.5845665871869</v>
+        <v>547.3108956025787</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>547.3108956025787</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5057,10 +5059,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5069,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>2728.612103363309</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2375.843448093195</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X11" t="n">
-        <v>2002.377689832115</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y11" t="n">
-        <v>1612.238357856303</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5114,7 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5124,7 +5126,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>826.5851666348717</v>
+        <v>593.9942835760974</v>
       </c>
       <c r="C13" t="n">
-        <v>657.6489837069648</v>
+        <v>593.9942835760974</v>
       </c>
       <c r="D13" t="n">
-        <v>507.5323442946291</v>
+        <v>443.8776441637616</v>
       </c>
       <c r="E13" t="n">
-        <v>359.619250712236</v>
+        <v>295.9645505813685</v>
       </c>
       <c r="F13" t="n">
-        <v>212.7293032143256</v>
+        <v>295.9645505813685</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5221,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1659.789691752076</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1659.789691752076</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1370.686824877719</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V13" t="n">
-        <v>1116.002336671832</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W13" t="n">
-        <v>826.5851666348717</v>
+        <v>1224.424878447885</v>
       </c>
       <c r="X13" t="n">
-        <v>826.5851666348717</v>
+        <v>996.4353275498672</v>
       </c>
       <c r="Y13" t="n">
-        <v>826.5851666348717</v>
+        <v>775.6427484063371</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1995.741330469122</v>
+        <v>1252.833343223196</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>883.8708262827847</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>883.8708262827847</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F14" t="n">
         <v>821.1650657389509</v>
@@ -5315,13 +5317,13 @@
         <v>2755.806928794324</v>
       </c>
       <c r="W14" t="n">
-        <v>2755.806928794324</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X14" t="n">
-        <v>2382.341170533244</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y14" t="n">
-        <v>2382.341170533244</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>381.1049005553748</v>
+        <v>648.3899067494191</v>
       </c>
       <c r="C16" t="n">
-        <v>381.1049005553748</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="D16" t="n">
-        <v>381.1049005553748</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E16" t="n">
-        <v>381.1049005553748</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F16" t="n">
-        <v>234.2149530574645</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5458,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1413.284144135797</v>
       </c>
       <c r="V16" t="n">
-        <v>1080.160086320592</v>
+        <v>1158.59965592991</v>
       </c>
       <c r="W16" t="n">
-        <v>790.7429162836319</v>
+        <v>869.1824858929492</v>
       </c>
       <c r="X16" t="n">
-        <v>562.7533653856145</v>
+        <v>869.1824858929492</v>
       </c>
       <c r="Y16" t="n">
-        <v>562.7533653856145</v>
+        <v>648.3899067494191</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1642.972675199008</v>
+        <v>1590.807527238423</v>
       </c>
       <c r="C17" t="n">
-        <v>1274.010158258596</v>
+        <v>1221.845010298011</v>
       </c>
       <c r="D17" t="n">
-        <v>1274.010158258596</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F17" t="n">
         <v>821.1650657389509</v>
@@ -5510,7 +5512,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912088</v>
@@ -5525,40 +5527,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V17" t="n">
-        <v>2755.806928794324</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W17" t="n">
-        <v>2403.038273524209</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X17" t="n">
-        <v>2029.572515263129</v>
+        <v>2367.546699278356</v>
       </c>
       <c r="Y17" t="n">
-        <v>2029.572515263129</v>
+        <v>1977.407367302545</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2191.895220967756</v>
+        <v>659.4316570185995</v>
       </c>
       <c r="C19" t="n">
-        <v>2022.959038039849</v>
+        <v>490.4954740906926</v>
       </c>
       <c r="D19" t="n">
-        <v>2022.959038039849</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E19" t="n">
-        <v>2022.959038039849</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>1876.069090541939</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>1562.149067134515</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>3325.60582160917</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>3133.919937435996</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>2912.153322005523</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>2912.153322005523</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V19" t="n">
-        <v>2657.468833799636</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W19" t="n">
-        <v>2368.051663762675</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X19" t="n">
-        <v>2368.051663762675</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y19" t="n">
-        <v>2191.895220967756</v>
+        <v>659.4316570185995</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1917.382287315189</v>
+        <v>2251.634947019675</v>
       </c>
       <c r="C20" t="n">
-        <v>1548.419770374778</v>
+        <v>1882.672430079263</v>
       </c>
       <c r="D20" t="n">
-        <v>1190.154071768027</v>
+        <v>1524.406731472513</v>
       </c>
       <c r="E20" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F20" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>2680.987377552081</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W20" t="n">
-        <v>2680.987377552081</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X20" t="n">
-        <v>2307.521619291001</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="Y20" t="n">
-        <v>1917.382287315189</v>
+        <v>2251.634947019675</v>
       </c>
     </row>
     <row r="21">
@@ -5820,22 +5822,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>825.3518203322459</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="C22" t="n">
-        <v>825.3518203322459</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D22" t="n">
-        <v>675.2351809199101</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E22" t="n">
-        <v>527.322087337517</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F22" t="n">
-        <v>380.4321398396066</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G22" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H22" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5932,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1919.525382957402</v>
       </c>
       <c r="S22" t="n">
-        <v>1704.243967942376</v>
+        <v>1727.839498784228</v>
       </c>
       <c r="T22" t="n">
-        <v>1482.477352511903</v>
+        <v>1506.072883353754</v>
       </c>
       <c r="U22" t="n">
-        <v>1482.477352511903</v>
+        <v>1506.072883353754</v>
       </c>
       <c r="V22" t="n">
-        <v>1227.792864306016</v>
+        <v>1251.388395147867</v>
       </c>
       <c r="W22" t="n">
-        <v>1227.792864306016</v>
+        <v>961.9712251109063</v>
       </c>
       <c r="X22" t="n">
-        <v>1227.792864306016</v>
+        <v>733.9816742128889</v>
       </c>
       <c r="Y22" t="n">
-        <v>1007.000285162486</v>
+        <v>513.1890950693588</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2319.363264431523</v>
+        <v>1519.109083729354</v>
       </c>
       <c r="C23" t="n">
-        <v>1950.400747491111</v>
+        <v>1150.146566788942</v>
       </c>
       <c r="D23" t="n">
-        <v>1592.135048884361</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="E23" t="n">
-        <v>1206.346796286116</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F23" t="n">
-        <v>795.3608914965089</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2884413415054</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>82.7048409502726</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>82.7048409502726</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>271.583971909298</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>605.4033455991446</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
-        <v>1056.437558847553</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1731.169689028171</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
-        <v>2277.948506086953</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>3157.913156416408</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3552.687522773586</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>4011.165725282574</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>4135.24204751363</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>4024.951379040725</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3818.973631424947</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U23" t="n">
-        <v>3565.443154698783</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V23" t="n">
-        <v>3234.380267355212</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W23" t="n">
-        <v>3234.380267355212</v>
+        <v>2669.314014030367</v>
       </c>
       <c r="X23" t="n">
-        <v>2860.914509094132</v>
+        <v>2295.848255769287</v>
       </c>
       <c r="Y23" t="n">
-        <v>2705.963104495645</v>
+        <v>1905.708923793476</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2511.732359461397</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>2337.27933018027</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>2188.344920519019</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>2029.107465513564</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>1882.572907540449</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>1746.209807373067</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H24" t="n">
-        <v>1655.707913010934</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I24" t="n">
-        <v>1636.700621412472</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>1730.377890903089</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>1968.642089883436</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>2335.340250196102</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
-        <v>2782.616575418418</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>3256.139618972872</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>3667.100898390927</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>3977.60048986703</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>4135.24204751363</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>4135.097694106145</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>4005.659807599625</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>3813.016807277481</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>3584.948960411896</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
-        <v>3349.796852180154</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>3095.559495451952</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>2887.707995246419</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>2679.947696481465</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.5607043708187</v>
+        <v>531.7821255545683</v>
       </c>
       <c r="C25" t="n">
-        <v>527.6245214429118</v>
+        <v>362.8459426266614</v>
       </c>
       <c r="D25" t="n">
-        <v>377.5078820305761</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E25" t="n">
-        <v>229.594788448183</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F25" t="n">
-        <v>82.7048409502726</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G25" t="n">
-        <v>82.7048409502726</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H25" t="n">
-        <v>82.7048409502726</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>82.7048409502726</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>127.8274733972082</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>331.8146563460846</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
-        <v>648.3744547945807</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>992.5315003941298</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
-        <v>1333.939877099994</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>1633.269476020408</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>1865.876976454067</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>1943.487272606582</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1853.65681536411</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S25" t="n">
-        <v>1853.65681536411</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T25" t="n">
-        <v>1853.65681536411</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U25" t="n">
-        <v>1853.65681536411</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V25" t="n">
-        <v>1598.972327158223</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W25" t="n">
-        <v>1309.555157121262</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X25" t="n">
-        <v>1081.565606223245</v>
+        <v>934.2231695283382</v>
       </c>
       <c r="Y25" t="n">
-        <v>860.773027079715</v>
+        <v>713.4305903848081</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1731.406681784085</v>
+        <v>1175.344218980305</v>
       </c>
       <c r="C26" t="n">
-        <v>1362.444164843673</v>
+        <v>1175.344218980305</v>
       </c>
       <c r="D26" t="n">
-        <v>1004.178466236923</v>
+        <v>817.078520373555</v>
       </c>
       <c r="E26" t="n">
-        <v>618.3902136386782</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F26" t="n">
-        <v>539.7741898658074</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G26" t="n">
-        <v>124.7017397108039</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>124.7017397108039</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>82.7048409502726</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>438.9896209296511</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>772.8089946194975</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1223.843207867906</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1757.375112539831</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2304.153929598613</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2904.391691000893</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3617.746778447839</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>4076.224980956827</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>4135.24204751363</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>4024.951379040725</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3818.973631424947</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>3565.443154698783</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V26" t="n">
-        <v>3234.380267355212</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W26" t="n">
-        <v>2881.611612085098</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X26" t="n">
-        <v>2508.145853824018</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y26" t="n">
-        <v>2118.006521848206</v>
+        <v>1561.944059044427</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>957.7365789991978</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>783.2835497180708</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>634.3491400568196</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>475.111685051364</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>328.577127078249</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>192.2140269108671</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>101.7121325487346</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>82.7048409502726</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>176.3821104408899</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>414.6463094212371</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>781.3444697339025</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.620794956219</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.143838510673</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2113.105117928728</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2423.604709404831</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>2581.246267051431</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2581.101913643946</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>2451.664027137426</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>2259.021026815281</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2030.953179949697</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>1795.801071717954</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>1541.563714989752</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1333.71221478422</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1125.951916019266</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2687.401223246649</v>
+        <v>678.6720730524786</v>
       </c>
       <c r="C28" t="n">
-        <v>2687.401223246649</v>
+        <v>509.7358901245717</v>
       </c>
       <c r="D28" t="n">
-        <v>2687.401223246649</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E28" t="n">
-        <v>2539.488129664256</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F28" t="n">
-        <v>2539.488129664256</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G28" t="n">
-        <v>2371.785293038974</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H28" t="n">
-        <v>2371.785293038974</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>2274.45961585732</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>2319.582248304256</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>2523.569431253132</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>2840.129229701628</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>3184.286275301177</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>3525.694652007042</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3825.024250927455</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>4057.631751361115</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>4135.24204751363</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>4045.411590271157</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>3853.725706097984</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T28" t="n">
-        <v>3631.95909066751</v>
+        <v>1625.214775269096</v>
       </c>
       <c r="U28" t="n">
-        <v>3342.856223793153</v>
+        <v>1625.214775269096</v>
       </c>
       <c r="V28" t="n">
-        <v>3342.856223793153</v>
+        <v>1370.530287063209</v>
       </c>
       <c r="W28" t="n">
-        <v>3053.439053756193</v>
+        <v>1081.113117026248</v>
       </c>
       <c r="X28" t="n">
-        <v>2825.449502858175</v>
+        <v>1081.113117026248</v>
       </c>
       <c r="Y28" t="n">
-        <v>2825.449502858175</v>
+        <v>860.3205378827183</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2067.381871868335</v>
+        <v>1848.950422814787</v>
       </c>
       <c r="C29" t="n">
-        <v>1740.416253688455</v>
+        <v>1479.987905874375</v>
       </c>
       <c r="D29" t="n">
-        <v>1424.147453842235</v>
+        <v>1479.987905874375</v>
       </c>
       <c r="E29" t="n">
-        <v>1080.356100004522</v>
+        <v>1094.199653276131</v>
       </c>
       <c r="F29" t="n">
-        <v>711.3670939754461</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
-        <v>338.2915425809742</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>82.7048409502726</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>82.7048409502726</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>271.583971909298</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>926.3073040445976</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
-        <v>1377.341517293006</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1950.439509737983</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2930.19178196463</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>3433.164252843967</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3827.938619201145</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>4076.224980956827</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>4135.24204751363</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>4066.948277801256</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3902.967428946009</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>3691.433850980377</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V29" t="n">
-        <v>3402.367862397337</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W29" t="n">
-        <v>3091.596105887755</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X29" t="n">
-        <v>2760.127246387206</v>
+        <v>2235.550262878909</v>
       </c>
       <c r="Y29" t="n">
-        <v>2411.984813171925</v>
+        <v>2235.550262878909</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>957.7365789991968</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>783.2835497180698</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>634.3491400568187</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>475.1116850513631</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>328.5771270782482</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>192.214026910867</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>101.7121325487346</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>82.7048409502726</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>176.3821104408899</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
-        <v>414.6463094212371</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>781.3444697339022</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.620794956218</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.143838510673</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
-        <v>2113.105117928727</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2423.60470940483</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2581.24626705143</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>2581.101913643945</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>2451.664027137425</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
-        <v>2259.02102681528</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2030.953179949696</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
-        <v>1795.801071717953</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W30" t="n">
-        <v>1541.563714989752</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1333.712214784219</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1125.951916019265</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2620.964826320528</v>
+        <v>627.5394227759724</v>
       </c>
       <c r="C31" t="n">
-        <v>2494.025542153152</v>
+        <v>627.5394227759724</v>
       </c>
       <c r="D31" t="n">
-        <v>2385.905801501348</v>
+        <v>477.4227833636367</v>
       </c>
       <c r="E31" t="n">
-        <v>2279.989606679486</v>
+        <v>329.5096897812435</v>
       </c>
       <c r="F31" t="n">
-        <v>2175.096557942107</v>
+        <v>329.5096897812435</v>
       </c>
       <c r="G31" t="n">
-        <v>2049.390620077358</v>
+        <v>161.8068531559625</v>
       </c>
       <c r="H31" t="n">
-        <v>1945.170332055747</v>
+        <v>161.8068531559625</v>
       </c>
       <c r="I31" t="n">
-        <v>1945.170332055747</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>2031.454124977879</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K31" t="n">
-        <v>2276.602468401952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L31" t="n">
-        <v>2634.323427325645</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>3019.641633400391</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N31" t="n">
-        <v>3402.211170581452</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>3742.701929977062</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>4016.470590885918</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>4135.24204751363</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>4087.408489031689</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S31" t="n">
-        <v>3937.719503619046</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T31" t="n">
-        <v>3757.949786949104</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U31" t="n">
-        <v>3585.512585632506</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V31" t="n">
-        <v>3372.824996187151</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W31" t="n">
-        <v>3125.404724910721</v>
+        <v>1037.177438504229</v>
       </c>
       <c r="X31" t="n">
-        <v>2939.412072773235</v>
+        <v>809.1878876062121</v>
       </c>
       <c r="Y31" t="n">
-        <v>2760.616392390236</v>
+        <v>809.1878876062121</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2067.381871868336</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C32" t="n">
-        <v>1740.416253688455</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="D32" t="n">
-        <v>1424.147453842236</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="E32" t="n">
-        <v>1080.356100004523</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F32" t="n">
-        <v>711.3670939754466</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G32" t="n">
-        <v>338.2915425809743</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>82.7048409502726</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>82.7048409502726</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>438.989620929651</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>772.8089946194973</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1223.843207867906</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1757.37511253983</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2553.199602514512</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>3433.164252843967</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3827.938619201145</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>4076.224980956827</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>4135.24204751363</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>4066.948277801256</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3902.967428946009</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U32" t="n">
-        <v>3691.433850980377</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>3402.367862397338</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>3091.596105887755</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X32" t="n">
-        <v>2760.127246387206</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y32" t="n">
-        <v>2411.984813171926</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>957.7365789991978</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>783.2835497180708</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>634.3491400568196</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>475.1116850513641</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>328.5771270782491</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>192.2140269108672</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>101.7121325487347</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>82.7048409502726</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>176.3821104408906</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>414.6463094212377</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>781.344469733903</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.620794956219</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1702.143838510673</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2113.105117928728</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2423.604709404831</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2581.246267051431</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2581.101913643946</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2451.664027137426</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2259.021026815281</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2030.953179949697</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1795.801071717954</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1541.563714989752</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1333.71221478422</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1125.951916019266</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2570.377409919791</v>
+        <v>1768.325760502317</v>
       </c>
       <c r="C34" t="n">
-        <v>2443.438125752415</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="D34" t="n">
-        <v>2335.318385100611</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="E34" t="n">
-        <v>2335.318385100611</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="F34" t="n">
-        <v>2230.425336363232</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="G34" t="n">
-        <v>2104.719398498482</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="H34" t="n">
-        <v>2000.499110476871</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I34" t="n">
-        <v>1945.170332055748</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J34" t="n">
-        <v>2031.45412497788</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K34" t="n">
-        <v>2276.602468401953</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L34" t="n">
-        <v>2634.323427325646</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M34" t="n">
-        <v>3019.641633400391</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N34" t="n">
-        <v>3402.211170581452</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O34" t="n">
-        <v>3742.701929977062</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P34" t="n">
-        <v>4016.470590885918</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q34" t="n">
-        <v>4135.24204751363</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R34" t="n">
-        <v>4111.489839428179</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S34" t="n">
-        <v>3961.800854015537</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T34" t="n">
-        <v>3782.031137345594</v>
+        <v>2822.322864763051</v>
       </c>
       <c r="U34" t="n">
-        <v>3534.925169231769</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V34" t="n">
-        <v>3322.237579786413</v>
+        <v>2278.535509682808</v>
       </c>
       <c r="W34" t="n">
-        <v>3074.817308509984</v>
+        <v>1989.118339645847</v>
       </c>
       <c r="X34" t="n">
-        <v>2888.824656372498</v>
+        <v>1989.118339645847</v>
       </c>
       <c r="Y34" t="n">
-        <v>2710.028975989499</v>
+        <v>1768.325760502317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1682.20014132117</v>
+        <v>1548.393281286113</v>
       </c>
       <c r="C35" t="n">
-        <v>1355.234523141289</v>
+        <v>1179.430764345701</v>
       </c>
       <c r="D35" t="n">
-        <v>1038.96572329507</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="E35" t="n">
-        <v>695.1743694573572</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F35" t="n">
-        <v>695.1743694573572</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>322.098818062885</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3161.624972753923</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>2950.09139478829</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V35" t="n">
-        <v>2950.09139478829</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W35" t="n">
-        <v>2706.414375340589</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X35" t="n">
-        <v>2374.945515840041</v>
+        <v>2325.132453326047</v>
       </c>
       <c r="Y35" t="n">
-        <v>2026.80308262476</v>
+        <v>1934.993121350235</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1866.657378837192</v>
+        <v>2023.010248708204</v>
       </c>
       <c r="C37" t="n">
-        <v>1739.718094669817</v>
+        <v>2023.010248708204</v>
       </c>
       <c r="D37" t="n">
-        <v>1631.598354018012</v>
+        <v>2023.010248708204</v>
       </c>
       <c r="E37" t="n">
-        <v>1525.68215919615</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="F37" t="n">
-        <v>1420.789110458771</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="G37" t="n">
-        <v>1295.083172594022</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H37" t="n">
-        <v>1190.862884572411</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I37" t="n">
-        <v>1135.534106151287</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J37" t="n">
-        <v>1221.81789907342</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K37" t="n">
-        <v>1466.966242497493</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L37" t="n">
-        <v>1824.687201421186</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M37" t="n">
-        <v>2210.005407495931</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N37" t="n">
-        <v>2592.574944676992</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O37" t="n">
-        <v>2933.065704072602</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P37" t="n">
-        <v>3206.834364981458</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R37" t="n">
-        <v>3277.772263127229</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S37" t="n">
-        <v>3258.080822932938</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T37" t="n">
-        <v>3078.311106262996</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U37" t="n">
-        <v>2831.205138149171</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="V37" t="n">
-        <v>2618.517548703815</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="W37" t="n">
-        <v>2371.097277427386</v>
+        <v>2243.802827851734</v>
       </c>
       <c r="X37" t="n">
-        <v>2185.1046252899</v>
+        <v>2243.802827851734</v>
       </c>
       <c r="Y37" t="n">
-        <v>2006.308944906901</v>
+        <v>2023.010248708204</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2051.189147350246</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C38" t="n">
-        <v>1724.223529170366</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D38" t="n">
-        <v>1407.954729324146</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E38" t="n">
-        <v>1064.163375486434</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F38" t="n">
-        <v>695.1743694573572</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>322.098818062885</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7184,40 +7186,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3257.312051896796</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3093.33120304155</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U38" t="n">
-        <v>2881.797625075917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2710.103337075109</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>2399.331580565527</v>
+        <v>2354.0217593722</v>
       </c>
       <c r="X38" t="n">
-        <v>2399.331580565527</v>
+        <v>1980.556001111121</v>
       </c>
       <c r="Y38" t="n">
-        <v>2051.189147350246</v>
+        <v>1590.416669135309</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7269,34 +7271,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>689.5156484662839</v>
+        <v>482.8906159540807</v>
       </c>
       <c r="C40" t="n">
-        <v>562.5763642989083</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="D40" t="n">
-        <v>562.5763642989083</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E40" t="n">
-        <v>456.6601694770465</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F40" t="n">
-        <v>351.7671207396675</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G40" t="n">
-        <v>226.0611828749177</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H40" t="n">
-        <v>121.8408948533068</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>152.7959093543157</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>397.9442527783887</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>755.6652117020815</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>1140.983417776827</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>1523.552954957888</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>1864.043714353498</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>2137.812375262354</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>2256.583831890066</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>2208.750273408125</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>2059.061287995482</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1879.29157132554</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U40" t="n">
-        <v>1632.185603211715</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V40" t="n">
-        <v>1441.375818332906</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W40" t="n">
-        <v>1193.955547056477</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X40" t="n">
-        <v>1007.962894918991</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.1672145359923</v>
+        <v>617.5020034330385</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1780.050980439091</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="C41" t="n">
-        <v>1453.08536225921</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D41" t="n">
-        <v>1136.816562412991</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E41" t="n">
-        <v>793.0252085752782</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F41" t="n">
-        <v>424.0362025462019</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G41" t="n">
-        <v>322.098818062885</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K41" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3257.312051896796</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3093.33120304155</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U41" t="n">
-        <v>3093.33120304155</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V41" t="n">
-        <v>2804.26521445851</v>
+        <v>2677.506217085556</v>
       </c>
       <c r="W41" t="n">
-        <v>2804.26521445851</v>
+        <v>2324.737561815441</v>
       </c>
       <c r="X41" t="n">
-        <v>2472.796354957962</v>
+        <v>1951.271803554361</v>
       </c>
       <c r="Y41" t="n">
-        <v>2124.653921742681</v>
+        <v>1561.13247157855</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7506,34 +7508,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>689.5156484662839</v>
+        <v>647.3667606649364</v>
       </c>
       <c r="C43" t="n">
-        <v>562.5763642989083</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="D43" t="n">
-        <v>562.5763642989083</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E43" t="n">
-        <v>456.6601694770465</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F43" t="n">
-        <v>351.7671207396675</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G43" t="n">
-        <v>226.0611828749177</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H43" t="n">
-        <v>121.8408948533068</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>152.7959093543157</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>397.9442527783887</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
-        <v>755.6652117020815</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>1140.983417776827</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
-        <v>1523.552954957888</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>1864.043714353498</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>2137.812375262354</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>2256.583831890066</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>2208.750273408125</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>2059.061287995482</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1879.29157132554</v>
+        <v>1639.936245786727</v>
       </c>
       <c r="U43" t="n">
-        <v>1632.185603211715</v>
+        <v>1350.833378912371</v>
       </c>
       <c r="V43" t="n">
-        <v>1419.498013766359</v>
+        <v>1096.148890706484</v>
       </c>
       <c r="W43" t="n">
-        <v>1172.07774248993</v>
+        <v>1096.148890706484</v>
       </c>
       <c r="X43" t="n">
-        <v>986.0850903524437</v>
+        <v>868.1593398084665</v>
       </c>
       <c r="Y43" t="n">
-        <v>829.1672145359923</v>
+        <v>647.3667606649364</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1904.487375535336</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C44" t="n">
-        <v>1535.524858594924</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D44" t="n">
-        <v>1177.259159988174</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E44" t="n">
-        <v>791.4709073899296</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F44" t="n">
-        <v>791.4709073899296</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>2630.72178906653</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W44" t="n">
-        <v>2277.953133796416</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X44" t="n">
-        <v>1904.487375535336</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y44" t="n">
-        <v>1904.487375535336</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="45">
@@ -7716,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,10 +7745,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>278.196479393871</v>
+        <v>1778.363179845251</v>
       </c>
       <c r="C46" t="n">
-        <v>109.260296465964</v>
+        <v>1762.85312294759</v>
       </c>
       <c r="D46" t="n">
-        <v>109.260296465964</v>
+        <v>1612.736483535254</v>
       </c>
       <c r="E46" t="n">
-        <v>109.260296465964</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="F46" t="n">
-        <v>109.260296465964</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218339</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="U46" t="n">
-        <v>1224.739181610488</v>
+        <v>2724.905882061868</v>
       </c>
       <c r="V46" t="n">
-        <v>970.0546934046014</v>
+        <v>2470.221393855981</v>
       </c>
       <c r="W46" t="n">
-        <v>680.6375233676408</v>
+        <v>2180.804223819021</v>
       </c>
       <c r="X46" t="n">
-        <v>680.6375233676408</v>
+        <v>2180.804223819021</v>
       </c>
       <c r="Y46" t="n">
-        <v>459.8449442241107</v>
+        <v>1960.011644675491</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>111.3760925029325</v>
       </c>
       <c r="K2" t="n">
-        <v>206.2312824958206</v>
+        <v>115.6728628570359</v>
       </c>
       <c r="L2" t="n">
-        <v>218.5736352262961</v>
+        <v>106.227907941153</v>
       </c>
       <c r="M2" t="n">
-        <v>211.215953068412</v>
+        <v>86.20968475950795</v>
       </c>
       <c r="N2" t="n">
-        <v>209.9732355046677</v>
+        <v>82.94423508449569</v>
       </c>
       <c r="O2" t="n">
-        <v>211.7417330031081</v>
+        <v>91.79185002470308</v>
       </c>
       <c r="P2" t="n">
-        <v>215.5661661171505</v>
+        <v>113.1917161337043</v>
       </c>
       <c r="Q2" t="n">
-        <v>210.5405532773516</v>
+        <v>133.6616048283647</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>121.3302910317987</v>
+        <v>85.34276391131277</v>
       </c>
       <c r="K3" t="n">
-        <v>128.4285251788558</v>
+        <v>66.92010932096011</v>
       </c>
       <c r="L3" t="n">
-        <v>125.8975555561084</v>
+        <v>43.19189982519259</v>
       </c>
       <c r="M3" t="n">
-        <v>127.3641170367148</v>
+        <v>30.85051777249899</v>
       </c>
       <c r="N3" t="n">
-        <v>116.1808794473352</v>
+        <v>17.11285239577319</v>
       </c>
       <c r="O3" t="n">
-        <v>128.7270444915786</v>
+        <v>38.09915424948208</v>
       </c>
       <c r="P3" t="n">
-        <v>122.8431517218888</v>
+        <v>50.10627990666582</v>
       </c>
       <c r="Q3" t="n">
-        <v>132.5408244403599</v>
+        <v>83.91815189430244</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>86.23379249476889</v>
       </c>
       <c r="L4" t="n">
-        <v>127.6190056317495</v>
+        <v>80.14168867079343</v>
       </c>
       <c r="M4" t="n">
-        <v>131.2651529699155</v>
+        <v>81.20697904562998</v>
       </c>
       <c r="N4" t="n">
-        <v>120.207066169841</v>
+        <v>71.3391637359548</v>
       </c>
       <c r="O4" t="n">
-        <v>131.5489533192605</v>
+        <v>86.41153592235784</v>
       </c>
       <c r="P4" t="n">
-        <v>131.817371646017</v>
+        <v>93.19451333315411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -9644,22 +9646,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>142.6264904128212</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9887,13 +9889,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>98.24776820499289</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10112,16 +10114,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>39.96574522530523</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10358,10 +10360,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>251.5612857736361</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -22559,7 +22561,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.19378971643289</v>
+        <v>14.48187344321937</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>271.1156284350085</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,10 +23317,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.82938129343</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>83.62291336565583</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>13.87137022843623</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>345.931847122794</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>319.8516671338663</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23555,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>186.659512900055</v>
       </c>
       <c r="V16" t="n">
-        <v>197.9364916568782</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23735,13 +23737,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>339.9402665794752</v>
       </c>
       <c r="E17" t="n">
-        <v>340.4897742195246</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>40.31880521824775</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>44.18977498512473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23975,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>92.59716673774722</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,19 +24022,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>144.4931409521387</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>81.24067919026716</v>
       </c>
       <c r="S22" t="n">
-        <v>57.88110365683403</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24215,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>340.3700696123279</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>232.836048103551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17.26178070012998</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24418,7 +24420,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>156.3736231505633</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24443,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>329.0461822065694</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24494,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>47.12005533005294</v>
       </c>
     </row>
     <row r="27">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>43.16418336652643</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>199.1911521864556</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24683,13 +24685,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>94.99487430697747</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24698,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>54.77549063691212</v>
+        <v>2.010631053296819</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>73.92207912925528</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,16 +24919,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>240.754104060068</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>11.53448916898762</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>104.8570328736432</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>23.84053689252532</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25160,10 +25162,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>365.2991159687855</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25202,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.61083201524987</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>286.1753286972089</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>66.42378969126284</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>88.6863685426668</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.96221606196724</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>128.697569766168</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>341.1569118905546</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25448,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>116.1979835764092</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>279.2259094596458</v>
       </c>
       <c r="X38" t="n">
-        <v>328.1541709055431</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>46.56670657776908</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>107.0385432452864</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>21.65902652088195</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>268.4267852420438</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25682,13 +25684,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>209.418242185976</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>250.2345538784544</v>
       </c>
       <c r="W41" t="n">
-        <v>307.6640389444871</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>107.0385432452864</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25837,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>213.7654079989106</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>21.65902652088201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>255.1805474109846</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>29.39721676553114</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>151.8918647699433</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>123.7051100255854</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>859145.2457773073</v>
+        <v>820974.2986106547</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>657653.5914849464</v>
+        <v>657653.5914849467</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>657653.5914849465</v>
+        <v>657653.5914849464</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>657653.5914849464</v>
+        <v>657653.5914849467</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>657653.5914849465</v>
+        <v>657653.5914849467</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>742572.2124215526</v>
+        <v>657653.5914849465</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>742572.2124215525</v>
+        <v>657653.5914849464</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>812332.9055581149</v>
+        <v>657653.5914849467</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>812332.9055581149</v>
+        <v>657653.5914849464</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>727414.2846215089</v>
+        <v>657653.5914849467</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>727414.2846215089</v>
+        <v>657653.5914849464</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>727414.2846215089</v>
+        <v>657653.5914849465</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>657653.5914849463</v>
+        <v>657653.5914849464</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>655428.0087694519</v>
+        <v>655473.3435977296</v>
       </c>
       <c r="C2" t="n">
-        <v>655481.174663391</v>
+        <v>655481.1746633911</v>
       </c>
       <c r="D2" t="n">
         <v>655487.834850115</v>
@@ -26323,34 +26325,34 @@
         <v>545595.3583534727</v>
       </c>
       <c r="F2" t="n">
-        <v>545595.3583534728</v>
+        <v>545595.3583534729</v>
       </c>
       <c r="G2" t="n">
         <v>545595.3583534728</v>
       </c>
       <c r="H2" t="n">
+        <v>545595.3583534728</v>
+      </c>
+      <c r="I2" t="n">
         <v>545595.3583534729</v>
       </c>
-      <c r="I2" t="n">
-        <v>595616.5757000739</v>
-      </c>
       <c r="J2" t="n">
-        <v>595616.5757000742</v>
+        <v>545595.3583534727</v>
       </c>
       <c r="K2" t="n">
-        <v>654362.4225519162</v>
+        <v>545595.358353473</v>
       </c>
       <c r="L2" t="n">
-        <v>654362.4225519162</v>
+        <v>545595.3583534731</v>
       </c>
       <c r="M2" t="n">
-        <v>604341.2052053151</v>
+        <v>545595.3583534729</v>
       </c>
       <c r="N2" t="n">
-        <v>604341.2052053149</v>
+        <v>545595.358353473</v>
       </c>
       <c r="O2" t="n">
-        <v>604341.2052053151</v>
+        <v>545595.3583534729</v>
       </c>
       <c r="P2" t="n">
         <v>545595.3583534728</v>
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26114.64939375769</v>
+        <v>196760.0786190583</v>
       </c>
       <c r="C3" t="n">
-        <v>189113.1615334027</v>
+        <v>27855.40645598344</v>
       </c>
       <c r="D3" t="n">
         <v>22280.77012981693</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>53824.81870718494</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>33261.54381834078</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>156747.4217819992</v>
+        <v>207188.5682920731</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>423664.6392525541</v>
+        <v>378259.3928997744</v>
       </c>
       <c r="C4" t="n">
-        <v>370434.2549872374</v>
+        <v>370434.2549872373</v>
       </c>
       <c r="D4" t="n">
         <v>364025.9487187511</v>
@@ -26433,31 +26435,31 @@
         <v>10380.34706710378</v>
       </c>
       <c r="H4" t="n">
-        <v>10380.34706710375</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="I4" t="n">
-        <v>35994.46649963663</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="J4" t="n">
-        <v>35994.46649963665</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="K4" t="n">
-        <v>78009.85508855731</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="L4" t="n">
-        <v>78009.85508855732</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="M4" t="n">
-        <v>52395.73565602444</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="N4" t="n">
-        <v>52395.73565602444</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="O4" t="n">
-        <v>52395.73565602444</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="P4" t="n">
-        <v>10380.3470671038</v>
+        <v>10380.34706710378</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34218.39667541214</v>
+        <v>38078.94064598077</v>
       </c>
       <c r="C5" t="n">
         <v>38745.80483114667</v>
@@ -26482,34 +26484,34 @@
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>86612.81119514107</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>86612.81119514107</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>90108.14210422119</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>90108.14210422119</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>77801.67147047339</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>77801.67147047339</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>77801.67147047339</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>171430.3234477279</v>
+        <v>42374.93143291608</v>
       </c>
       <c r="C6" t="n">
-        <v>57187.95331160427</v>
+        <v>218445.7083890237</v>
       </c>
       <c r="D6" t="n">
         <v>229868.1546446662</v>
@@ -26531,37 +26533,37 @@
         <v>-453334.7794751791</v>
       </c>
       <c r="F6" t="n">
-        <v>460908.6707249757</v>
+        <v>460908.6707249758</v>
       </c>
       <c r="G6" t="n">
-        <v>460908.6707249757</v>
+        <v>460908.6707249756</v>
       </c>
       <c r="H6" t="n">
+        <v>460908.6707249756</v>
+      </c>
+      <c r="I6" t="n">
+        <v>460908.6707249758</v>
+      </c>
+      <c r="J6" t="n">
+        <v>460908.6707249755</v>
+      </c>
+      <c r="K6" t="n">
         <v>460908.6707249759</v>
       </c>
-      <c r="I6" t="n">
-        <v>419184.4792981112</v>
-      </c>
-      <c r="J6" t="n">
-        <v>473009.2980052965</v>
-      </c>
-      <c r="K6" t="n">
-        <v>452982.881540797</v>
-      </c>
       <c r="L6" t="n">
-        <v>486244.4253591377</v>
+        <v>460908.670724976</v>
       </c>
       <c r="M6" t="n">
-        <v>317396.3762968181</v>
+        <v>253720.1024329027</v>
       </c>
       <c r="N6" t="n">
-        <v>474143.7980788171</v>
+        <v>460908.6707249759</v>
       </c>
       <c r="O6" t="n">
-        <v>474143.7980788173</v>
+        <v>460908.6707249758</v>
       </c>
       <c r="P6" t="n">
-        <v>460908.6707249757</v>
+        <v>460908.6707249756</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.10076492716237</v>
+        <v>204.1899378890263</v>
       </c>
       <c r="C3" t="n">
         <v>234.7800381259942</v>
@@ -26796,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>1033.810511878407</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>1033.810511878407</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>1033.810511878407</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
-        <v>1033.810511878407</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.10076492716237</v>
+        <v>204.1899378890263</v>
       </c>
       <c r="C3" t="n">
-        <v>207.6792731988318</v>
+        <v>30.59010023696789</v>
       </c>
       <c r="D3" t="n">
         <v>26.01635439147063</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>202.4090564761149</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>628.9923989261778</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,13 +27396,13 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.3590404723087</v>
+        <v>331.0681279392606</v>
       </c>
       <c r="I2" t="n">
-        <v>206.2756795609409</v>
+        <v>178.8295274378765</v>
       </c>
       <c r="J2" t="n">
-        <v>2.702481124515039</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>143.0254257809251</v>
+        <v>98.30551518367611</v>
       </c>
       <c r="S2" t="n">
-        <v>206.5374216233199</v>
+        <v>190.3146295474667</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6189305753126</v>
+        <v>219.5025170893205</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3369370839403</v>
+        <v>251.2799837820832</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27470,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2852249518579</v>
+        <v>136.9043161647324</v>
       </c>
       <c r="H3" t="n">
-        <v>111.6724641952737</v>
+        <v>107.9936872248772</v>
       </c>
       <c r="I3" t="n">
-        <v>87.38964224124315</v>
+        <v>74.27501952661454</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>96.53860369689869</v>
+        <v>72.88884584361429</v>
       </c>
       <c r="S3" t="n">
-        <v>170.6004188447196</v>
+        <v>163.5252051891206</v>
       </c>
       <c r="T3" t="n">
-        <v>199.929770176255</v>
+        <v>198.3944404597271</v>
       </c>
       <c r="U3" t="n">
-        <v>225.93754706707</v>
+        <v>225.9124872784434</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27549,19 +27551,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9421091266229</v>
+        <v>167.6227679950523</v>
       </c>
       <c r="H4" t="n">
-        <v>161.7926717189352</v>
+        <v>158.9534387491532</v>
       </c>
       <c r="I4" t="n">
-        <v>153.9808137735033</v>
+        <v>144.3773550168173</v>
       </c>
       <c r="J4" t="n">
-        <v>89.904054725877</v>
+        <v>67.32663672383741</v>
       </c>
       <c r="K4" t="n">
-        <v>16.5916594362249</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.06982774769287</v>
+        <v>55.32936263045141</v>
       </c>
       <c r="R4" t="n">
-        <v>175.096008043895</v>
+        <v>160.7372695280035</v>
       </c>
       <c r="S4" t="n">
-        <v>223.1649231785236</v>
+        <v>217.5996781856073</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7367802558919</v>
+        <v>226.3723226937267</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3163637074817</v>
+        <v>286.2989451003051</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -29509,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1089477987021602</v>
+        <v>0.820864071915683</v>
       </c>
       <c r="H2" t="n">
-        <v>1.115761643458498</v>
+        <v>8.406674176506492</v>
       </c>
       <c r="I2" t="n">
-        <v>4.200210009465036</v>
+        <v>31.6463621325294</v>
       </c>
       <c r="J2" t="n">
-        <v>9.246808230097479</v>
+        <v>69.66981202375376</v>
       </c>
       <c r="K2" t="n">
-        <v>13.85856854915992</v>
+        <v>104.4169881879447</v>
       </c>
       <c r="L2" t="n">
-        <v>17.19277974369116</v>
+        <v>129.5385070288343</v>
       </c>
       <c r="M2" t="n">
-        <v>19.1302801588607</v>
+        <v>144.1365484677648</v>
       </c>
       <c r="N2" t="n">
-        <v>19.43982809192322</v>
+        <v>146.4688285120952</v>
       </c>
       <c r="O2" t="n">
-        <v>18.35647841857861</v>
+        <v>138.3063613969836</v>
       </c>
       <c r="P2" t="n">
-        <v>15.66682963811903</v>
+        <v>118.0412796215652</v>
       </c>
       <c r="Q2" t="n">
-        <v>11.76513659709791</v>
+        <v>88.64408504608478</v>
       </c>
       <c r="R2" t="n">
-        <v>6.843692160224577</v>
+        <v>51.56360275747357</v>
       </c>
       <c r="S2" t="n">
-        <v>2.482647962925479</v>
+        <v>18.70544003877865</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4769189888187066</v>
+        <v>3.593332474810904</v>
       </c>
       <c r="U2" t="n">
-        <v>0.008715823896172816</v>
+        <v>0.06566912575325463</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05829221135276435</v>
+        <v>0.439200998478283</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5629800412227506</v>
+        <v>4.241757011619208</v>
       </c>
       <c r="I3" t="n">
-        <v>2.006990610171931</v>
+        <v>15.12161332480053</v>
       </c>
       <c r="J3" t="n">
-        <v>5.50733563486797</v>
+        <v>41.49486275535393</v>
       </c>
       <c r="K3" t="n">
-        <v>9.412913795503181</v>
+        <v>70.92132965339889</v>
       </c>
       <c r="L3" t="n">
-        <v>12.65682422376579</v>
+        <v>95.36247995468159</v>
       </c>
       <c r="M3" t="n">
-        <v>14.76991688530349</v>
+        <v>111.2835161495193</v>
       </c>
       <c r="N3" t="n">
-        <v>15.16083263599813</v>
+        <v>114.2288596875601</v>
       </c>
       <c r="O3" t="n">
-        <v>13.86919995286582</v>
+        <v>104.4970901949624</v>
       </c>
       <c r="P3" t="n">
-        <v>11.13125569244147</v>
+        <v>83.86812750766443</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.44094964566164</v>
+        <v>56.06362219171908</v>
       </c>
       <c r="R3" t="n">
-        <v>3.619230455744441</v>
+        <v>27.26898830902885</v>
       </c>
       <c r="S3" t="n">
-        <v>1.082752259118232</v>
+        <v>8.157965914717225</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2349585185666246</v>
+        <v>1.770288235094482</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00383501390478713</v>
+        <v>0.028894802531466</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04887023183586657</v>
+        <v>0.3682113634064408</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4345007885043413</v>
+        <v>3.273733758286358</v>
       </c>
       <c r="I4" t="n">
-        <v>1.46966115375497</v>
+        <v>11.07311991044097</v>
       </c>
       <c r="J4" t="n">
-        <v>3.455125390795766</v>
+        <v>26.03254339283537</v>
       </c>
       <c r="K4" t="n">
-        <v>5.677832389657951</v>
+        <v>42.77946567576648</v>
       </c>
       <c r="L4" t="n">
-        <v>7.265670649488746</v>
+        <v>54.74298761044486</v>
       </c>
       <c r="M4" t="n">
-        <v>7.66063097768952</v>
+        <v>57.71880490197508</v>
       </c>
       <c r="N4" t="n">
-        <v>7.478478295392205</v>
+        <v>56.34638072927839</v>
       </c>
       <c r="O4" t="n">
-        <v>6.907585132582306</v>
+        <v>52.04500252948495</v>
       </c>
       <c r="P4" t="n">
-        <v>5.910632403130624</v>
+        <v>44.53349071599352</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.092215504001518</v>
+        <v>30.83268062124297</v>
       </c>
       <c r="R4" t="n">
-        <v>2.197383333274509</v>
+        <v>16.55612184916597</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8516748584486925</v>
+        <v>6.416919851364971</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2088091723896117</v>
+        <v>1.573266734554792</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002665649009229089</v>
+        <v>0.02008425618580589</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -32312,7 +32314,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32549,7 +32551,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -33044,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33272,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953983</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687116</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36364,22 +36366,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>681.547606243048</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36607,13 +36609,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>606.300769093212</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36692,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,16 +36834,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>578.886861055532</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
@@ -36920,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.1553463859922</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>247.6245893172456</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>361.3343019431241</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
-        <v>389.2103091664098</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>386.4338759404661</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>343.9300599955658</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>276.5340009180364</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>119.9711683108196</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>803.8631211865473</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597783</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.15534638599217</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>247.6245893172455</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>361.334301943124</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
-        <v>389.2103091664097</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>386.433875940466</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>343.9300599955657</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>276.5340009180363</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>119.9711683108196</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037199</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.15534638599217</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>247.6245893172455</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>361.334301943124</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>389.2103091664097</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>386.433875940466</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>343.9300599955657</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>276.5340009180363</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>119.9711683108196</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.15534638599217</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>247.6245893172455</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>361.334301943124</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>389.2103091664097</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>386.433875940466</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>343.9300599955657</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>276.5340009180363</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>119.9711683108196</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.787000968712</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.15534638599217</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>247.6245893172455</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>361.334301943124</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>389.2103091664097</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>386.433875940466</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>343.9300599955657</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>276.5340009180363</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>119.9711683108196</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
